--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariela/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledu\Documents\maraja-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC50F4A-E212-8E42-B4EA-DAF5C520F3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A85E99A-0332-4755-9AE5-B8E1236FADB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="500" windowWidth="17940" windowHeight="16140" xr2:uid="{BAC46A86-2E47-9443-BBFF-E1A62B1099F2}"/>
+    <workbookView xWindow="6960" yWindow="495" windowWidth="17940" windowHeight="16140" xr2:uid="{BAC46A86-2E47-9443-BBFF-E1A62B1099F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>entrar</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Kon</t>
+  </si>
+  <si>
+    <t>ojear</t>
   </si>
 </sst>
 </file>
@@ -437,16 +440,16 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -454,47 +457,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -502,28 +505,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
